--- a/framework/src/main/java/com/framework/config/ObjectRepository.xlsx
+++ b/framework/src/main/java/com/framework/config/ObjectRepository.xlsx
@@ -40,12 +40,6 @@
     <t>TXT_ConfirmPassword</t>
   </si>
   <si>
-    <t>TXT_SignUp</t>
-  </si>
-  <si>
-    <t>TXT_UserProfile</t>
-  </si>
-  <si>
     <t>TXT_Username</t>
   </si>
   <si>
@@ -88,7 +82,13 @@
     <t>//button[text()="Login"]</t>
   </si>
   <si>
-    <t>//h3[@class="heading-title"]</t>
+    <t>//h3[contains(text(),'Hi,')]</t>
+  </si>
+  <si>
+    <t>BTN_SignUp</t>
+  </si>
+  <si>
+    <t>LBL_UserProfile</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,10 +712,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +723,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,21 +734,21 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,54 +767,54 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/framework/src/main/java/com/framework/config/ObjectRepository.xlsx
+++ b/framework/src/main/java/com/framework/config/ObjectRepository.xlsx
@@ -76,9 +76,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>//button[contains(@class, 'signup)]</t>
-  </si>
-  <si>
     <t>//button[text()="Login"]</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>LBL_UserProfile</t>
+  </si>
+  <si>
+    <t>//button[contains(@class, "signup")]</t>
   </si>
 </sst>
 </file>
@@ -687,13 +687,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -775,24 +775,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
